--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -88,6 +88,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -110,12 +111,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -310,10 +313,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="59.7397959183674"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="58.9897959183674"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.3520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
